--- a/data/rings_base_invest/Power_Storage.xlsx
+++ b/data/rings_base_invest/Power_Storage.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Malacek\Code\LEGO-Pyomo\data\rings_base_example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Malacek\Code\LEGO-Pyomo\data\rings_base_invest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B27DA83-6889-4512-BAEF-686102FA3854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796A6F62-B91B-442A-AFA4-7D87D3793C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -114,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
   <si>
     <t>Power - Storage</t>
   </si>
@@ -399,6 +412,15 @@
   </si>
   <si>
     <t>[dataSource]</t>
+  </si>
+  <si>
+    <t>myBESS</t>
+  </si>
+  <si>
+    <t>BESS</t>
+  </si>
+  <si>
+    <t>Node_1</t>
   </si>
 </sst>
 </file>
@@ -500,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -546,6 +568,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -851,13 +880,13 @@
   <sheetPr>
     <tabColor rgb="FF008080"/>
   </sheetPr>
-  <dimension ref="A1:AD13"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -878,7 +907,7 @@
     <col min="29" max="30" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -912,7 +941,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -920,7 +949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1012,7 +1041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -1104,7 +1133,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>49</v>
@@ -1194,7 +1223,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
         <v>76</v>
@@ -1284,7 +1313,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
         <v>79</v>
@@ -1374,39 +1403,88 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
+      <c r="C8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J8" s="16">
+        <v>1</v>
+      </c>
+      <c r="K8" s="16">
+        <v>1</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>100</v>
+      </c>
+      <c r="N8" s="16">
+        <v>100</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
+        <v>5</v>
+      </c>
+      <c r="S8" s="16">
+        <v>1</v>
+      </c>
+      <c r="T8" s="16">
+        <v>1000</v>
+      </c>
+      <c r="U8" s="16">
+        <v>1000</v>
+      </c>
+      <c r="V8" s="16">
+        <v>500</v>
+      </c>
+      <c r="W8" s="16">
+        <v>2</v>
+      </c>
+      <c r="X8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>1996</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>2150</v>
+      </c>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="21"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -1438,7 +1516,7 @@
       <c r="AC9" s="18"/>
       <c r="AD9" s="18"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -1470,7 +1548,7 @@
       <c r="AC10" s="18"/>
       <c r="AD10" s="18"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -1502,7 +1580,7 @@
       <c r="AC11" s="18"/>
       <c r="AD11" s="18"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -1534,7 +1612,7 @@
       <c r="AC12" s="18"/>
       <c r="AD12" s="18"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
     </row>
